--- a/projects/frontend/public/example-echos.xlsx
+++ b/projects/frontend/public/example-echos.xlsx
@@ -20,69 +20,308 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Text</t>
+    <t xml:space="preserve">Text English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilated left ventricle with moderately reduced systolic function (EF by Simpson: 38%).
+Wall thicknesses at the upper limit of normal (IVSD: 11.8 mm, LVPWD: 11.2 mm).
+E/E' elevated to 22.3.
+Left atrium enlarged (LAVI: 52 ml/m²).
+Diastolic dysfunction grade II–III.
+Aortic root is normally dimensioned.
+Right ventricle mildly dilated (RVEDD: 3.8 cm), right ventricular function mildly reduced (TAPSE: 1.6 cm).
+Mitral valve: mildly sclerotic, normal valve area, regurgitation grade II.
+Tricuspid valve: structurally unremarkable, regurgitation grade I, RVSP: 42 mmHg + central venous pressure.
+Inferior vena cava (IVC): 17 mm with reduced respiratory variation.</t>
   </si>
   <si>
     <t xml:space="preserve">Dilatierter linker Ventrikel mit mittelgradig reduzierter systolischer Funktion (EF nach Simpson 38%). Wandstärken grenzwertig (IVSD: 11.8 mm, LVPWD: 11.2 mm). E/E' erhöht auf 22.3. Linker Vorhof vergrößert (LAVI: 52 ml/m²). Diastolische Dysfunktion Grad II-III. Aortenwurzel normal dimensioniert. Rechter Ventrikel leicht dilatiert (RVEDD: 3.8 cm), RV-Funktion leicht eingeschränkt (TAPSE: 1.6 cm). Mitralklappe: Leicht sklerosiert, Öffnungsfläche normal, Insuffizienz II°. Trikuspidalklappe: Strukturell unauffällig, Insuffizienz I°, RVSP 42 mmHg + ZVD. VCI: 17 mm mit eingeschränkter Atemmodulation.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely dilated left ventricle with severely impaired systolic function (biplane EF: 25%).
+Normal wall thicknesses.
+Severe diastolic dysfunction (E/E': 28.4).
+Left atrial volume index markedly increased (LAVI: 65 ml/m²).
+Ascending aorta mildly dilated (4.2 cm).
+Right ventricle severely dilated (RVEDD: 4.5 cm) with markedly reduced function (TAPSE: 1.2 cm, S': 0.06 m/s).
+Mitral regurgitation grade III due to annular dilatation.
+Tricuspid valve regurgitation grade II, RVSP: 55 mmHg + central venous pressure.
+Inferior vena cava (IVC): 22 mm, with minimal respiratory variation.
+Apical pericardial effusion (8 mm).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwer dilatierter linker Ventrikel mit hochgradig eingeschränkter systolischer Funktion (EF biplan 25%). Normale Wandstärken. Schwere diastolische Funktionsstörung (E/E': 28.4). LA-Volumenindex deutlich erhöht (LAVI: 65 ml/m²). Aorta ascendens leicht dilatiert (4.2 cm). RV stark dilatiert (RVEDD: 4.5 cm) mit deutlich reduzierter Funktion (TAPSE: 1.2 cm, S': 0.06 m/s). Mitralinsuffizienz III° bei Ringdilatation. Trikuspidalklappe mit Insuffizienz II°, RVSP 55 mmHg + ZVD. VCI: 22 mm, kaum atemmoduliert. Perikarderguss apikal (8 mm).</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle borderline dilated, mildly reduced systolic function (EF by Simpson: 48%).
+Normal wall thicknesses.
+E/E' slightly elevated (15.2).
+Left atrium moderately enlarged (LAVI: 42 ml/m²).
+Diastolic dysfunction grade I–II.
+Aorta of normal dimensions.
+Right ventricular size and function normal (TAPSE: 2.1 cm).
+Mitral valve: age-appropriate sclerosis, no significant valvular disease.
+Tricuspid valve: delicate leaflets, regurgitation grade I, RVSP within normal range.
+Inferior vena cava (IVC): 15 mm with preserved respiratory variation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV grenzwertig dilatiert, leichtgradig eingeschränkte systolische Funktion (EF Simpson 48%). Normale Wandstärken. E/E' leicht erhöht (15.2). LA moderat vergrößert (LAVI: 42 ml/m²). Diastolische Dysfunktion Grad I-II. Aorta normal dimensioniert. RV Größe und Funktion normal (TAPSE: 2.1 cm). Mitralklappe: Altersentsprechend sklerosiert, kein relevantes Vitium. Trikuspidalklappe: Zarte Segel, Insuffizienz I°, RVSP normwertig. VCI: 15 mm mit erhaltener Atemmodulation.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely dilated left ventricle (LVEDD: 68 mm) with severely reduced pump function (EF: 30%).
+Concentric hypertrophy (IVSD: 14 mm, LVPWD: 13.5 mm).
+Restrictive filling pattern (E/E': 32).
+Biventricular heart failure.
+Right atrium and right ventricle markedly dilated (RAA: 24 cm², RVEDD: 4.8 cm).
+Global right ventricular dysfunction (TAPSE: 1.1 cm).
+Status post MitraClip with residual mitral regurgitation grade II.
+Tricuspid valve regurgitation grade III, RVSP: 62 mmHg + central venous pressure.
+Circumferential pericardial effusion (12 mm).
+Inferior vena cava (IVC) dilated (24 mm).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hochgradig dilatierter LV (LVEDD: 68 mm) mit schwer reduzierter Pumpfunktion (EF 30%). Konzentrische Hypertrophie (IVSD: 14 mm, LVPWD: 13.5 mm). Restriktive Füllungsstörung (E/E': 32). Biventrikuläre Herzinsuffizienz. RA und RV deutlich dilatiert (RAA: 24 cm², RVEDD: 4.8 cm). Globale RV Dysfunktion (TAPSE: 1.1 cm). Z.n. MitraClip mit residueller MI II°. Trikuspidalklappe: Insuffizienz III°, RVSP 62 mmHg + ZVD. Zirkumferentieller Perikarderguss (12 mm). VCI dilatiert (24 mm).</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle normal in size with slightly reduced systolic function (EF: 50%).
+Concentric left ventricular hypertrophy (IVSD: 13.5 mm, LVPWD: 12.8 mm).
+Diastolic dysfunction grade I with normal filling pressures (E/E': 9.8).
+Left atrium mildly enlarged (LAVI: 35 ml/m²).
+Aortic root and ascending aorta of normal width.
+Right ventricular size and function normal (TAPSE: 2.3 cm, S': 0.14 m/s).
+All valves morphologically age-appropriate with no significant valvular disease.
+RVSP normal.
+Inferior vena cava (IVC): 16 mm with normal respiratory variation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV normal groß mit leicht reduzierter systolischer Funktion (EF 50%). Konzentrische LV-Hypertrophie (IVSD: 13.5 mm, LVPWD: 12.8 mm). Diastolische Dysfunktion Grad I mit normalen Füllungsdrücken (E/E': 9.8). LA leicht vergrößert (LAVI: 35 ml/m²). Aortenwurzel und Aorta ascendens normal weit. RV Größe und Funktion normal (TAPSE: 2.3 cm, S': 0.14 m/s). Alle Klappen morphologisch altersentsprechend ohne relevante Vitien. RVSP normal. VCI: 16 mm mit normaler Atemmodulation.</t>
   </si>
   <si>
+    <t xml:space="preserve">Moderately dilated left ventricle (LVEDD: 62 mm) due to generalized hypokinesia with reduced systolic function(EF by Simpson: 42%).
+Normal wall thicknesses.
+Diastolic dysfunction grade II with elevated filling pressures (E/E': 18.2).
+Left atrium dilated (LAVI: 48 ml/m²).
+Ascending aorta at the upper limit of normal (3.8 cm).
+Right ventricle borderline in size (RVEDD: 3.6 cm), mildly reduced function (TAPSE: 1.7 cm).
+Mitral valve: mild sclerosis with regurgitation grade II.
+Tricuspid valve: regurgitation grade I, RVSP: 45 mmHg + central venous pressure.
+Minimal posterior pericardial effusion (4 mm).
+Inferior vena cava (IVC): 18 mm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mittelgradig dilatierter LV (LVEDD: 62 mm) bei generalisierter Hypokinesie mit reduzierter systolischer Funktion (EF nach Simpson 42%). Normale Wandstärken. Diastolische Dysfunktion Grad II bei erhöhten Füllungsdrücken (E/E': 18.2). LA dilatiert (LAVI: 48 ml/m²). Aorta ascendens grenzwertig weit (3.8 cm). RV grenzwertig groß (RVEDD: 3.6 cm), Funktion leichtgradig eingeschränkt (TAPSE: 1.7 cm). Mitralklappe: Leichte Sklerose mit Insuffizienz II°. Trikuspidalklappe: Insuffizienz I°, RVSP 45 mmHg + ZVD. Minimaler Perikarderguss posterior (4 mm). VCI: 18 mm.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely impaired left ventricular function (biplane EF: 28%) with severe dilatation.
+Eccentric hypertrophy (IVSD: 13.8 mm, LVPWD: 12.4 mm).
+Restrictive filling pattern (E/E': 30.5).
+Markedly enlarged left atrium (LAVI: 62 ml/m²).
+Right ventricle dilated and dysfunctional (RVEDD: 4.4 cm, TAPSE: 1.3 cm, S': 0.08 m/s).
+Status post mitral valve repair with residual mitral regurgitation grade III.
+Tricuspid valve regurgitation grade II–III, RVSP: 58 mmHg + central venous pressure.
+Inferior vena cava (IVC): 23 mm, non-respiratory variable.
+Bilateral pleural effusions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hochgradig eingeschränkte LV-Funktion (EF biplan 28%) bei schwerer Dilatation. Exzentrische Hypertrophie (IVSD: 13.8 mm, LVPWD: 12.4 mm). Restriktive Füllungsstörung (E/E': 30.5). Deutlich vergrößerter linker Vorhof (LAVI: 62 ml/m²). RV dilatiert und dysfunktional (RVEDD: 4.4 cm, TAPSE: 1.3 cm, S': 0.08 m/s). Z.n. Mitralklappenrekonstruktion mit residueller MI III°. Trikuspidalklappe: Insuffizienz II-III°, RVSP 58 mmHg + ZVD. VCI: 23 mm, nicht atemvariabel. Bilaterale Pleuraergüsse.</t>
   </si>
   <si>
+    <t xml:space="preserve">Normal left ventricular size with mildly reduced ejection fraction (EF: 52%).
+Asymmetric septal hypertrophy (IVSD: 15.2 mm, LVPWD: 11.0 mm).
+Impaired relaxation (E/E': 12.4).
+Left atrium moderately enlarged (LAVI: 38 ml/m²).
+Right ventricle of normal size with good function (TAPSE: 2.2 cm).
+Aortic valve: tricuspid, opens well.
+Mitral valve: SAM phenomenon (systolic anterior motion) with dynamic LVOT obstruction (maximum gradient: 65 mmHg), mitral regurgitation grade I–II.
+Tricuspid valve: unremarkable.
+Inferior vena cava (IVC): normal in width and shows respiratory variation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normale LV-Größe mit leichtgradig reduzierter EF (52%). Asymmetrische septale Hypertrophie (IVSD: 15.2 mm, LVPWD: 11.0 mm). Gestörte Relaxation (E/E': 12.4). LA moderat vergrößert (LAVI: 38 ml/m²). Normale RV-Größe mit guter Funktion (TAPSE: 2.2 cm). Aortenklappe: Trikuspid, gut öffnend. Mitralklappe: SAM-Phänomen mit dynamischer LVOT-Obstruktion (Gradient max. 65 mmHg), MI I-II°. Trikuspidalklappe: Unauffällig. VCI normal weit und atemmoduliert.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely dilated left ventricle (LVEDD: 72 mm) with globally severely reduced contractility (EF: 22%).
+Wall thicknesses normal.
+Severe diastolic dysfunction (E/E': 35.2).
+Massively enlarged left atrium (LAVI: 75 ml/m²).
+Right atrium and right ventricle severely dilated (RAA: 28 cm², RVEDD: 5.2 cm).
+Right ventricular function severely impaired (TAPSE: 1.0 cm, S': 0.05 m/s).
+Functional mitral regurgitation grade IV due to tenting.
+Tricuspid regurgitation grade III due to pulmonary hypertension (RVSP: 72 mmHg + central venous pressure).
+Circumferential pericardial effusion (15 mm).
+Inferior vena cava (IVC): maximally dilated (28 mm).
+Severe bilateral pleural effusions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwer dilatierter LV (LVEDD: 72 mm) mit global hochgradig reduzierter Kontraktilität (EF 22%). Wandstärken normal. Schwere diastolische Dysfunktion (E/E': 35.2). Massiv vergrößerter LA (LAVI: 75 ml/m²). RA und RV hochgradig dilatiert (RAA: 28 cm², RVEDD: 5.2 cm). RV-Funktion schwer eingeschränkt (TAPSE: 1.0 cm, S': 0.05 m/s). Funktionelle MI IV° bei Tenting. TI III° bei pulmonaler Hypertonie (RVSP 72 mmHg + ZVD). Zirkumferentieller Perikarderguss (15 mm). VCI maximal dilatiert (28 mm). Ausgeprägte Pleuraergüsse beidseits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle of normal size and wall thickness with preserved systolic function (EF: 58%).
+Diastolic function normal (E/E': 8.2).
+Left atrial volume index within normal range (28 ml/m²).
+Aortic root and ascending aorta slender.
+Right ventricle not dilated, with good function (TAPSE: 2.4 cm, S': 0.15 m/s).
+All valves morphologically and functionally unremarkable.
+RVSP within normal range.
+Inferior vena cava (IVC): 14 mm with physiological respiratory variation.
+No pericardial effusion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV normale Größe und Wandstärken mit erhaltener systolischer Funktion (EF 58%). Diastolische Funktion normal (E/E': 8.2). LA Volumenindex normwertig (28 ml/m²). Aortenwurzel und Aorta ascendens schlank. RV nicht dilatiert mit guter Funktion (TAPSE: 2.4 cm, S': 0.15 m/s). Alle Klappen morphologisch und funktionell unauffällig. RVSP normwertig. VCI: 14 mm mit physiologischer Atemmodulation. Kein Perikarderguss.</t>
   </si>
   <si>
+    <t xml:space="preserve">Moderately dilated left ventricle (LVEDD: 58 mm) with regional wall motion abnormalities: akinesia of the anterior and anteroseptal walls, hypokinesia of the lateral wall.
+Globally reduced ejection fraction (EF: 40%).
+Wall thickness apically reduced (5–6 mm).
+Diastolic dysfunction grade II (E/E': 16.8).
+Left atrium enlarged (LAVI: 44 ml/m²).
+Right ventricle normal in size, mildly reduced function (TAPSE: 1.8 cm).
+Mitral valve: regurgitation grade II due to tenting.
+Tricuspid valve: regurgitation grade I, RVSP: 38 mmHg + central venous pressure.
+Apical aneurysm with mural thrombus (15×12 mm).
+Inferior vena cava (IVC): 16 mm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mäßig dilatierter LV (LVEDD: 58 mm) mit regional unterschiedlicher Wandkinetik: Akinesie anterior und anteroseptal, Hypokinesie lateral. Global reduzierte EF (40%). Wandstärken apikal vermindert (5-6 mm). Diastolische Dysfunktion Grad II (E/E': 16.8). LA vergrößert (LAVI: 44 ml/m²). RV Größe normal, Funktion leicht eingeschränkt (TAPSE: 1.8 cm). Mitralklappe: MI II° bei Tenting. Trikuspidalklappe: TI I°, RVSP 38 mmHg + ZVD. Apikales Aneurysma mit wandständigem Thrombus (15x12 mm). VCI: 16 mm.</t>
   </si>
   <si>
+    <t xml:space="preserve">Concentrically hypertrophied left ventricle (IVSD: 16.5 mm, LVPWD: 15.8 mm) with preserved ejection fraction(EF: 60%).
+Restrictive filling pattern (E/E': 25.2).
+Left atrium severely enlarged (LAVI: 55 ml/m²).
+Right ventricle normal in size with good function (TAPSE: 2.2 cm, S': 0.12 m/s).
+Aortic valve: thickened cusps, low-flow/low-gradient aortic stenosis (AV Vmax: 3.2 m/s, mean gradient: 22 mmHg, valve area: 0.9 cm²).
+Mitral valve: regurgitation grade I.
+Tricuspid valve: unremarkable.
+Sparkling myocardium.
+Inferior vena cava (IVC): 20 mm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konzentrisch hypertropher LV (IVSD: 16.5 mm, LVPWD: 15.8 mm) mit erhaltener EF (60%). Restriktive Füllung (E/E': 25.2). LA stark vergrößert (LAVI: 55 ml/m²). RV normal groß mit guter Funktion (TAPSE: 2.2 cm, S': 0.12 m/s). Aortenklappe: Verdickte Taschen, low-flow/low-gradient Aortenstenose (AV-Vmax 3.2 m/s, mittlerer Gradient 22 mmHg, KÖF 0.9 cm²). Mitralklappe: MI I°. Trikuspidalklappe: Unauffällig. Sparkeling Myokard. VCI: 20 mm.</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle normal in size with severely impaired systolic function (EF: 32%).
+Wall thicknesses normal.
+Impaired relaxation (E/E': 14.5).
+Left atrium moderately enlarged (LAVI: 41 ml/m²).
+Right ventricle dilated (RVEDD: 4.0 cm) with reduced function (TAPSE: 1.5 cm).
+Mitral valve: posterior mitral leaflet prolapse with eccentric mitral regurgitation grade III.
+Tricuspid valve: regurgitation grade II, RVSP: 48 mmHg + central venous pressure.
+Inferior vena cava (IVC): 21 mm.
+Small posterior pericardial effusion (6 mm).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normal großer LV mit schwer eingeschränkter systolischer Funktion (EF 32%). Normale Wandstärken. Gestörte Relaxation (E/E': 14.5). LA moderat vergrößert (LAVI: 41 ml/m²). RV dilatiert (RVEDD: 4.0 cm) mit eingeschränkter Funktion (TAPSE: 1.5 cm). Mitralklappe: Posteriores Mitralklappenprolaps mit exzentrischer MI III°. Trikuspidalklappe: TI II°, RVSP 48 mmHg + ZVD. VCI: 21 mm. Kleiner Perikarderguss (6 mm) posterior.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely dilated left ventricle (LVEDD: 65 mm) in the context of dilated cardiomyopathy (DCM) with severely reduced ejection fraction (EF: 26%).
+Diastolic dysfunction grade III (E/E': 28.8).
+Biatrial enlargement (LAVI: 68 ml/m², RAA: 26 cm²).
+Right ventricle dilated and dysfunctional (RVEDD: 4.6 cm, TAPSE: 1.2 cm).
+Status post CRT (cardiac resynchronization therapy) system implantation.
+Marked functional mitral regurgitation grade III due to tenting.
+Tricuspid regurgitation grade III, RVSP: 65 mmHg + central venous pressure.
+Intraventricular dyssynchrony.
+Inferior vena cava (IVC): 25 mm.
+Moderate bilateral pleural effusions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwer dilatierter LV (LVEDD: 65 mm) bei DCM mit hochgradig reduzierter EF (26%). Diastolische Dysfunktion Grad III (E/E': 28.8). Biatrialer Größenzunahme (LAVI: 68 ml/m², RAA: 26 cm²). RV dilatiert und dysfunktional (RVEDD: 4.6 cm, TAPSE: 1.2 cm). Z.n. CRT-System-Implantation. Ausgeprägte funktionelle MI III° bei Tenting. TI III°, RVSP 65 mmHg + ZVD. Intraventrikuläre Dyssynchronie. VCI: 25 mm. Moderate Pleuraergüsse beidseits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle not dilated, with normal wall thicknesses.
+Regionally reduced pump function (EF: 45%): akinesia of the inferolateral and inferior walls.
+Diastolic dysfunction grade I (E/E': 11.2).
+Left atrium mildly enlarged (LAVI: 36 ml/m²).
+Right ventricle size and function normal (TAPSE: 2.0 cm).
+Mitral annular calcification with mitral regurgitation grade I–II.
+Tricuspid valve delicate, tricuspid regurgitation grade I.
+RVSP within normal range.
+Regional wall motion abnormalities in the LCx (left circumflex artery) territory.
+Inferior vena cava (IVC): 15 mm with good respiratory variation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV nicht dilatiert, normale Wandstärken. Regional eingeschränkte Pumpfunktion (EF 45%): Akinesie inferolateral und inferior. Diastolische Dysfunktion Grad I (E/E': 11.2). LA leicht vergrößert (LAVI: 36 ml/m²). RV Größe und Funktion normal (TAPSE: 2.0 cm). Mitrale Annuluskalzifizierung mit MI I-II°. Trikuspidalklappe zart, TI I°. RVSP normwertig. Regionale Wandbewegungsstörungen im RCX-Versorgungsgebiet. VCI: 15 mm mit guter Atemmodulation.</t>
   </si>
   <si>
+    <t xml:space="preserve">Borderline enlarged left ventricle with septal akinesia and apical dyskinesia (biplane EF: 35%).
+Wall thickness normal basally, thinned apically (5 mm).
+Pseudonormalized filling pattern (E/E': 15.8).
+Left atrium enlarged (LAVI: 46 ml/m²).
+Right ventricle mildly dilated (RVEDD: 3.7 cm), with mildly reduced function (TAPSE: 1.6 cm).
+Mitral regurgitation grade II due to tenting.
+Tricuspid regurgitation grade I, RVSP: 42 mmHg + central venous pressure.
+Apical LV pseudoaneurysm (22×18 mm) with a narrow neck.
+Inferior vena cava (IVC): 17 mm.
+Small left-sided pleural effusion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grenzwertig großer LV mit septaler Akinesie und apikaler Dyskinesie (EF biplan 35%). Wandstärken basal normal, apikal verdünnt (5 mm). Pseudonormalisierte Füllung (E/E': 15.8). LA vergrößert (LAVI: 46 ml/m²). RV gering dilatiert (RVEDD: 3.7 cm), Funktion leichtgradig eingeschränkt (TAPSE: 1.6 cm). MI II° bei Tenting. TI I°, RVSP 42 mmHg + ZVD. Apikales LV-Pseudoaneurysma (22x18 mm) mit schmalem Hals. VCI: 17 mm. Kleiner Pleuraerguss links.</t>
   </si>
   <si>
+    <t xml:space="preserve">Biventricular hypertrophy (IVSD: 18 mm, LVPWD: 16 mm, RV wall: 8 mm) with normal left ventricular diameter.
+Ejection fraction normal (EF: 62%).
+Restrictive physiology (E/E': 32.4).
+Biatrial enlargement (LAVI: 58 ml/m², RAA: 22 cm²).
+Right ventricular function impaired (TAPSE: 1.4 cm).
+Atrioventricular valves: relative mitral regurgitation grade II and tricuspid regurgitation grade II.
+Circumferential pericardial effusion (10 mm).
+Granular sparkling myocardium.
+Inferior vena cava (IVC): 24 mm, minimal respiratory variation.
+Interatrial septum with "septal bounce".</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biventrikuläre Hypertrophie (IVSD: 18 mm, LVPWD: 16 mm, RV-Wand: 8 mm) bei normalem LV-Diameter. EF normal (62%). Restriktive Physiologie (E/E': 32.4). Biatriale Vergrößerung (LAVI: 58 ml/m², RAA: 22 cm²). RV-Funktion eingeschränkt (TAPSE: 1.4 cm). AV-Klappen: Relative MI II° und TI II°. Perikarderguss zirkumferentiell (10 mm). Granulär-glitzerndes Myokard. VCI: 24 mm, kaum atemvariabel. Interatriales Septum mit "septal bounce".</t>
   </si>
   <si>
+    <t xml:space="preserve">Left ventricle of normal size with marked concentric hypertrophy (IVSD: 22 mm, LVPWD: 20 mm).
+Preserved ejection fraction (EF: 65%).
+Markedly elevated filling pressures (E/E': 28).
+Left atrium severely enlarged (LAVI: 52 ml/m²).
+Right ventricle hypertrophied but normal in size, with good function (TAPSE: 2.1 cm).
+LVOT gradient at rest: 85 mmHg.
+SAM phenomenon (systolic anterior motion) with dynamic mitral regurgitation grade II–III.
+Tricuspid regurgitation grade I.
+Elongated mitral leaflets.
+Inferior vena cava (IVC): 16 mm.
+Aortic valve delicate.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normal großer LV mit ausgeprägter konzentrischer Hypertrophie (IVSD: 22 mm, LVPWD: 20 mm). Erhaltene EF (65%). Deutlich erhöhte Füllungsdrücke (E/E': 28). LA stark vergrößert (LAVI: 52 ml/m²). RV hypertrophiert aber normgroß, gute Funktion (TAPSE: 2.1 cm). LVOT-Gradient in Ruhe 85 mmHg. SAM-Phänomen mit dynamischer MI II-III°. TI I°. Elongierte Mitralsegel. VCI: 16 mm. Aortenklappe zart.</t>
   </si>
   <si>
+    <t xml:space="preserve">Severely dilated left ventricle (LVEDD: 74 mm) with non-compaction morphology (NC/C ratio &gt;2.5:1 apicolateral).
+Globally severely reduced ejection fraction (EF: 24%).
+Restrictive filling pattern (E/E': 29.6).
+Massively enlarged left atrium (LAVI: 72 ml/m²).
+Right ventricle dilated and dysfunctional (RVEDD: 4.8 cm, TAPSE: 1.1 cm).
+Functional mitral regurgitation grade III–IV.
+Tricuspid regurgitation grade III, RVSP: 68 mmHg + central venous pressure.
+Multiple apical thrombi.
+Inferior vena cava (IVC): 26 mm.
+Severe bilateral pleural effusions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LV stark dilatiert (LVEDD: 74 mm) bei non-compaction Morphologie (NC/C-Ratio &gt;2.5:1 apikolateral). Global stark eingeschränkte EF (24%). Restriktive Füllung (E/E': 29.6). LA massiv vergrößert (LAVI: 72 ml/m²). RV dilatiert und dysfunktional (RVEDD: 4.8 cm, TAPSE: 1.1 cm). Funktionelle MI III-IV°. TI III°, RVSP 68 mmHg + ZVD. Multiple apikale Thromben. VCI: 26 mm. Ausgeprägte Pleuraergüsse beidseits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings typical for perimyocarditis:
+Left ventricle of normal size with preserved systolic function (EF: 56%).
+Regional wall thickening predominantly in the septum.
+Diastolic function normal (E/E': 9.4).
+Left atrium normal in size.
+Right ventricle size and function normal (TAPSE: 2.3 cm).
+No significant valvular disease.
+Circumferential pericardial effusion (12 mm) with fibrin strands.
+Septal bounce.
+Inferior vena cava (IVC): 22 mm with reduced respiratory variation.</t>
   </si>
   <si>
     <t xml:space="preserve">Perimyokarditis-typischer Befund: Normal großer LV mit erhaltener systolischer Funktion (EF 56%). Septal betonte regionale Wandverdickung. Diastolische Funktion normal (E/E': 9.4). LA normal groß. RV Größe und Funktion normal (TAPSE: 2.3 cm). Keine relevanten Klappenvitien. Zirkumferentieller Perikarderguss (12 mm) mit Fibrinstraßen. Septumschwingung. VCI: 22 mm bei eingeschränkter Atemmodulation.</t>
@@ -166,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +415,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,183 +545,247 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="149.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="149.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="149.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="120.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="120.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="109.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
